--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976139.7439273717</v>
+        <v>942633.6060624876</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3551162.054805127</v>
+        <v>3156786.099274136</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4716405.315541725</v>
+        <v>4768610.469240184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10107306.2594711</v>
+        <v>10191036.73482764</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>28.90966800344418</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>139.0984362006083</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.09791697323064</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>82.24726854823453</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>269.5431107021491</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>68.25327490405893</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>84.80114430924256</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>308.1699826279567</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>46.36452066793902</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7177065691261</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.9049828570325</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>118.4960408938903</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>20.29597025588131</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.20172872112705</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>81.12200652863734</v>
+        <v>153.4004975788663</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7157464301448</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>96.51460584083404</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>33.35277208577021</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S15" t="n">
-        <v>141.4480436716715</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>193.6036703453149</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8342919011679</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>108.5465089707745</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>191.442026261026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2445929036414</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>79.19758026791473</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>412.2245742909188</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>307.9505629957631</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>91.80500186881116</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>138.8764251144189</v>
       </c>
       <c r="T17" t="n">
-        <v>100.8649089008073</v>
+        <v>209.621190050125</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0993998498992</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5574116118565</v>
+        <v>135.6965546418765</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>96.32925356992703</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>32.69200218267304</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>141.0915646220388</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9654699154601</v>
+        <v>193.526313970672</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8330292835186</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>28.33724577870909</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>60.98703991086305</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.9537508799299</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.045986838918</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.243715280882</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.2245742909188</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>72.07709939077752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>26.94389492651078</v>
+        <v>138.8764251144189</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.621190050125</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0993998498992</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5574116118565</v>
+        <v>135.6965546418765</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>96.32925356992705</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>32.69200218267305</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>141.0915646220388</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9654699154601</v>
+        <v>193.526313970672</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8330292835186</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.610221305629</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.84851802853964</v>
       </c>
       <c r="U22" t="n">
-        <v>91.79970579514256</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>46.25307783771938</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.14965406203438</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>207.695187002995</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>41.92656778835528</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>45.90234712787159</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.30003116274762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>16.95157624067979</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>29.18937547121085</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206836</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>125.3828115670207</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3799,10 +3799,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>136.9575509524583</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>11.18851504581401</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>283.3815461749965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2491.769918480429</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2491.769918480429</v>
+        <v>2338.01095308058</v>
       </c>
       <c r="X2" t="n">
-        <v>2118.304160219349</v>
+        <v>1964.5451948195</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,40 +4412,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931987</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.212414302789</v>
+        <v>940.7730915590425</v>
       </c>
       <c r="C5" t="n">
-        <v>1899.212414302789</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D5" t="n">
-        <v>1540.946715696039</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E5" t="n">
-        <v>1155.158463097794</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
-        <v>744.1725583081868</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>326.2087502063737</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.212414302789</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4673,16 +4673,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>122.8856837436563</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>122.8856837436563</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117852</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1122.016392241183</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.372765927088</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224088</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2385.866280282913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2033.097625012799</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1659.631866751719</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1269.492534775907</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641998</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598715</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C10" t="n">
         <v>222.942782082032</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3838260558018</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5912469122717</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2432.949222346331</v>
+        <v>1345.474503722482</v>
       </c>
       <c r="C11" t="n">
-        <v>2063.986705405919</v>
+        <v>976.5119867820704</v>
       </c>
       <c r="D11" t="n">
-        <v>1705.721006799168</v>
+        <v>976.5119867820704</v>
       </c>
       <c r="E11" t="n">
-        <v>1319.932754200924</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="F11" t="n">
-        <v>908.9468494113166</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G11" t="n">
-        <v>491.8590676477442</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H11" t="n">
         <v>173.6359524202537</v>
@@ -5068,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2540.93405351505</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U11" t="n">
-        <v>2540.93405351505</v>
+        <v>2461.848249229488</v>
       </c>
       <c r="V11" t="n">
-        <v>2540.93405351505</v>
+        <v>2461.848249229488</v>
       </c>
       <c r="W11" t="n">
-        <v>2540.93405351505</v>
+        <v>2109.079593959374</v>
       </c>
       <c r="X11" t="n">
-        <v>2540.93405351505</v>
+        <v>1735.613835698294</v>
       </c>
       <c r="Y11" t="n">
-        <v>2540.93405351505</v>
+        <v>1345.474503722482</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K12" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L12" t="n">
-        <v>332.0575713317425</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M12" t="n">
-        <v>972.6029207988471</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N12" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O12" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P12" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q12" t="n">
         <v>2636.288039261394</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>625.6447993885844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>456.7086164606775</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>306.5919770483417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5226,25 +5226,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S13" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T13" t="n">
-        <v>846.4373785321145</v>
+        <v>887.1968164855321</v>
       </c>
       <c r="U13" t="n">
-        <v>846.4373785321145</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>846.4373785321145</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>846.4373785321145</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>846.4373785321145</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>625.6447993885844</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>1609.244883920707</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>1240.282366980295</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5278,25 +5278,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>130.3363180802356</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K14" t="n">
-        <v>295.5686444502388</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L14" t="n">
-        <v>950.9403204168613</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M14" t="n">
-        <v>1440.579862536633</v>
+        <v>1218.1570159054</v>
       </c>
       <c r="N14" t="n">
-        <v>2108.124262563643</v>
+        <v>1845.464683965246</v>
       </c>
       <c r="O14" t="n">
-        <v>2387.79340418491</v>
+        <v>2392.625888732324</v>
       </c>
       <c r="P14" t="n">
-        <v>2591.983545325437</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
@@ -5305,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U14" t="n">
-        <v>2615.207670282225</v>
+        <v>2385.98405596064</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.144782938654</v>
+        <v>2385.98405596064</v>
       </c>
       <c r="W14" t="n">
-        <v>1931.37612766854</v>
+        <v>2385.98405596064</v>
       </c>
       <c r="X14" t="n">
-        <v>1557.91036940746</v>
+        <v>2385.98405596064</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>1995.844723984828</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>951.3682159198476</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C15" t="n">
-        <v>776.9151866387206</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D15" t="n">
-        <v>627.9807769774693</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E15" t="n">
-        <v>468.7433219720139</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F15" t="n">
-        <v>322.2087639988988</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G15" t="n">
-        <v>185.122151443197</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H15" t="n">
-        <v>87.63265059386973</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>80.62448259300498</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K15" t="n">
-        <v>466.2028265477417</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L15" t="n">
-        <v>678.9329477543562</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M15" t="n">
-        <v>1112.381875348799</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.47605816293</v>
+        <v>1853.433914230804</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.644657190128</v>
+        <v>2402.869922983527</v>
       </c>
       <c r="P15" t="n">
-        <v>2524.01262320023</v>
+        <v>2511.559550510825</v>
       </c>
       <c r="Q15" t="n">
-        <v>2591.136337999795</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R15" t="n">
-        <v>2591.136337999795</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S15" t="n">
-        <v>2448.259526210228</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T15" t="n">
-        <v>2252.700263235162</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U15" t="n">
-        <v>2024.584816870346</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V15" t="n">
-        <v>1789.432708638604</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W15" t="n">
-        <v>1535.195351910402</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X15" t="n">
-        <v>1327.343851704869</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y15" t="n">
-        <v>1119.583552939916</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>310.4758676725925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>310.4758676725925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>310.4758676725925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5436,52 +5436,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>57.03462198351275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>191.9519731994843</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L16" t="n">
-        <v>420.1261669406309</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M16" t="n">
-        <v>671.0929849525055</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N16" t="n">
-        <v>921.5269893923304</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O16" t="n">
-        <v>1136.827030896218</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P16" t="n">
-        <v>1297.532728405419</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q16" t="n">
-        <v>1325.3619431736</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R16" t="n">
-        <v>1325.3619431736</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S16" t="n">
-        <v>1325.3619431736</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T16" t="n">
-        <v>1325.3619431736</v>
+        <v>860.5018791776627</v>
       </c>
       <c r="U16" t="n">
-        <v>1036.22599074568</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V16" t="n">
-        <v>781.5415025397928</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W16" t="n">
-        <v>492.1243325028321</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
-        <v>492.1243325028321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>492.1243325028321</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1657.819059363519</v>
+        <v>2104.071207329788</v>
       </c>
       <c r="C17" t="n">
-        <v>1657.819059363519</v>
+        <v>1735.108690389376</v>
       </c>
       <c r="D17" t="n">
-        <v>1657.819059363519</v>
+        <v>1376.842991782626</v>
       </c>
       <c r="E17" t="n">
-        <v>1272.030806765275</v>
+        <v>991.0547391843813</v>
       </c>
       <c r="F17" t="n">
-        <v>861.0449019756675</v>
+        <v>911.0571833582048</v>
       </c>
       <c r="G17" t="n">
-        <v>444.9191274406255</v>
+        <v>494.6687244784889</v>
       </c>
       <c r="H17" t="n">
-        <v>136.5481687423248</v>
+        <v>183.6075497352938</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="J17" t="n">
-        <v>322.6072235424573</v>
+        <v>337.688131546022</v>
       </c>
       <c r="K17" t="n">
-        <v>846.010082111487</v>
+        <v>828.3415036370109</v>
       </c>
       <c r="L17" t="n">
-        <v>1134.129635750339</v>
+        <v>1489.317025797111</v>
       </c>
       <c r="M17" t="n">
-        <v>1486.387591312326</v>
+        <v>2241.386196021725</v>
       </c>
       <c r="N17" t="n">
-        <v>1848.959257248492</v>
+        <v>2990.99263413887</v>
       </c>
       <c r="O17" t="n">
-        <v>2177.99013882257</v>
+        <v>3653.637099486233</v>
       </c>
       <c r="P17" t="n">
-        <v>2560.346343462825</v>
+        <v>4181.514436931139</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>4500.706573599025</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>4543.761230764126</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>4403.482013476834</v>
       </c>
       <c r="T17" t="n">
-        <v>2595.265344653771</v>
+        <v>4191.743437668627</v>
       </c>
       <c r="U17" t="n">
-        <v>2341.650601977204</v>
+        <v>3938.107680244486</v>
       </c>
       <c r="V17" t="n">
-        <v>2010.587714633633</v>
+        <v>3607.044792900916</v>
       </c>
       <c r="W17" t="n">
-        <v>1657.819059363519</v>
+        <v>3254.276137630801</v>
       </c>
       <c r="X17" t="n">
-        <v>1657.819059363519</v>
+        <v>2880.810379369721</v>
       </c>
       <c r="Y17" t="n">
-        <v>1657.819059363519</v>
+        <v>2490.67104739391</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>944.1571494126568</v>
+        <v>987.4264042074198</v>
       </c>
       <c r="C18" t="n">
-        <v>769.7041201315299</v>
+        <v>812.9733749262928</v>
       </c>
       <c r="D18" t="n">
-        <v>620.7697104702786</v>
+        <v>664.0389652650415</v>
       </c>
       <c r="E18" t="n">
-        <v>461.5322554648232</v>
+        <v>504.8015102595861</v>
       </c>
       <c r="F18" t="n">
-        <v>314.9976974917081</v>
+        <v>358.266952286471</v>
       </c>
       <c r="G18" t="n">
-        <v>178.0710190958934</v>
+        <v>221.1997253754846</v>
       </c>
       <c r="H18" t="n">
-        <v>82.12614552758106</v>
+        <v>123.897449042225</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="J18" t="n">
-        <v>220.2641839727268</v>
+        <v>244.1819214625444</v>
       </c>
       <c r="K18" t="n">
-        <v>601.4014026156002</v>
+        <v>632.8283278207339</v>
       </c>
       <c r="L18" t="n">
-        <v>848.1665305220642</v>
+        <v>1042.015171454329</v>
       </c>
       <c r="M18" t="n">
-        <v>1155.486663802026</v>
+        <v>1314.43219106846</v>
       </c>
       <c r="N18" t="n">
-        <v>1485.349291466059</v>
+        <v>1608.467923505384</v>
       </c>
       <c r="O18" t="n">
-        <v>1764.889356684756</v>
+        <v>1855.233378943394</v>
       </c>
       <c r="P18" t="n">
-        <v>2285.189978420503</v>
+        <v>2349.2294868695</v>
       </c>
       <c r="Q18" t="n">
-        <v>2580.299395736217</v>
+        <v>2626.755033315726</v>
       </c>
       <c r="R18" t="n">
-        <v>2580.299395736217</v>
+        <v>2626.755033315726</v>
       </c>
       <c r="S18" t="n">
-        <v>2440.393290819991</v>
+        <v>2484.238301374273</v>
       </c>
       <c r="T18" t="n">
-        <v>2245.478674743769</v>
+        <v>2288.757176151372</v>
       </c>
       <c r="U18" t="n">
-        <v>2017.373750363156</v>
+        <v>2060.643005157919</v>
       </c>
       <c r="V18" t="n">
-        <v>1782.221642131413</v>
+        <v>1825.490896926176</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.984285403212</v>
+        <v>1571.253540197974</v>
       </c>
       <c r="X18" t="n">
-        <v>1320.132785197679</v>
+        <v>1363.402039992442</v>
       </c>
       <c r="Y18" t="n">
-        <v>1112.372486432725</v>
+        <v>1155.641741227488</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>401.6192847451617</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="C19" t="n">
-        <v>232.6831018172548</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="D19" t="n">
-        <v>82.56646240491909</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="J19" t="n">
-        <v>66.32567428427433</v>
+        <v>95.09303469149006</v>
       </c>
       <c r="K19" t="n">
-        <v>216.5110785288858</v>
+        <v>231.8610290203453</v>
       </c>
       <c r="L19" t="n">
-        <v>464.2231235400151</v>
+        <v>462.4034087918598</v>
       </c>
       <c r="M19" t="n">
-        <v>735.7898663071978</v>
+        <v>715.8671469285744</v>
       </c>
       <c r="N19" t="n">
-        <v>1006.333975334745</v>
+        <v>968.7387003135614</v>
       </c>
       <c r="O19" t="n">
-        <v>1240.208953340142</v>
+        <v>1186.290212797035</v>
       </c>
       <c r="P19" t="n">
-        <v>1416.808717945825</v>
+        <v>1348.922432682904</v>
       </c>
       <c r="Q19" t="n">
-        <v>1455.642160917981</v>
+        <v>1378.085471685261</v>
       </c>
       <c r="R19" t="n">
-        <v>1455.642160917981</v>
+        <v>1316.482401068228</v>
       </c>
       <c r="S19" t="n">
-        <v>1455.642160917981</v>
+        <v>1114.508915330925</v>
       </c>
       <c r="T19" t="n">
-        <v>1455.642160917981</v>
+        <v>890.2200397360582</v>
       </c>
       <c r="U19" t="n">
-        <v>1166.513522131539</v>
+        <v>601.0849737957733</v>
       </c>
       <c r="V19" t="n">
-        <v>911.8290339256524</v>
+        <v>601.0849737957733</v>
       </c>
       <c r="W19" t="n">
-        <v>622.4118638886919</v>
+        <v>311.6678037588126</v>
       </c>
       <c r="X19" t="n">
-        <v>622.4118638886919</v>
+        <v>311.6678037588126</v>
       </c>
       <c r="Y19" t="n">
-        <v>401.6192847451617</v>
+        <v>90.87522461528252</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.959449965771</v>
+        <v>2104.071207329788</v>
       </c>
       <c r="C20" t="n">
-        <v>797.9969330253591</v>
+        <v>1735.108690389376</v>
       </c>
       <c r="D20" t="n">
-        <v>439.7312344186087</v>
+        <v>1376.842991782626</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>991.0547391843813</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>580.0688343947738</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>163.6803755150578</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="J20" t="n">
-        <v>155.2015745221043</v>
+        <v>337.6881315460219</v>
       </c>
       <c r="K20" t="n">
-        <v>663.4663214959392</v>
+        <v>828.3415036370102</v>
       </c>
       <c r="L20" t="n">
-        <v>951.5858751347914</v>
+        <v>1489.317025797111</v>
       </c>
       <c r="M20" t="n">
-        <v>1303.843830696778</v>
+        <v>2241.386196021725</v>
       </c>
       <c r="N20" t="n">
-        <v>1666.415496632944</v>
+        <v>2990.99263413887</v>
       </c>
       <c r="O20" t="n">
-        <v>1995.446378207022</v>
+        <v>3653.637099486232</v>
       </c>
       <c r="P20" t="n">
-        <v>2560.346343462825</v>
+        <v>4181.514436931138</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>4500.706573599025</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>4543.761230764126</v>
       </c>
       <c r="S20" t="n">
-        <v>2669.933035536898</v>
+        <v>4403.482013476834</v>
       </c>
       <c r="T20" t="n">
-        <v>2669.933035536898</v>
+        <v>4191.743437668627</v>
       </c>
       <c r="U20" t="n">
-        <v>2669.933035536898</v>
+        <v>3938.107680244486</v>
       </c>
       <c r="V20" t="n">
-        <v>2669.933035536898</v>
+        <v>3607.044792900916</v>
       </c>
       <c r="W20" t="n">
-        <v>2317.164380266784</v>
+        <v>3254.276137630801</v>
       </c>
       <c r="X20" t="n">
-        <v>1943.698622005704</v>
+        <v>2880.810379369721</v>
       </c>
       <c r="Y20" t="n">
-        <v>1553.559290029893</v>
+        <v>2490.67104739391</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>944.1571494126568</v>
+        <v>987.4264042074198</v>
       </c>
       <c r="C21" t="n">
-        <v>769.7041201315299</v>
+        <v>812.9733749262928</v>
       </c>
       <c r="D21" t="n">
-        <v>620.7697104702786</v>
+        <v>664.0389652650415</v>
       </c>
       <c r="E21" t="n">
-        <v>461.5322554648232</v>
+        <v>504.8015102595861</v>
       </c>
       <c r="F21" t="n">
-        <v>314.9976974917081</v>
+        <v>358.266952286471</v>
       </c>
       <c r="G21" t="n">
-        <v>178.0710190958934</v>
+        <v>221.1997253754847</v>
       </c>
       <c r="H21" t="n">
-        <v>82.12614552758106</v>
+        <v>123.897449042225</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="J21" t="n">
-        <v>95.43405898572206</v>
+        <v>244.1819214625444</v>
       </c>
       <c r="K21" t="n">
-        <v>442.2459756236663</v>
+        <v>632.8283278207339</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.143045380555</v>
+        <v>1039.937842013313</v>
       </c>
       <c r="M21" t="n">
-        <v>1363.463178660517</v>
+        <v>1312.354861627444</v>
       </c>
       <c r="N21" t="n">
-        <v>1693.325806324549</v>
+        <v>1606.390594064368</v>
       </c>
       <c r="O21" t="n">
-        <v>1972.865871543246</v>
+        <v>1853.156049502377</v>
       </c>
       <c r="P21" t="n">
-        <v>2493.166493278994</v>
+        <v>2347.152157428484</v>
       </c>
       <c r="Q21" t="n">
-        <v>2580.299395736217</v>
+        <v>2624.67770387471</v>
       </c>
       <c r="R21" t="n">
-        <v>2580.299395736217</v>
+        <v>2626.755033315726</v>
       </c>
       <c r="S21" t="n">
-        <v>2440.393290819991</v>
+        <v>2484.238301374273</v>
       </c>
       <c r="T21" t="n">
-        <v>2245.478674743769</v>
+        <v>2288.757176151372</v>
       </c>
       <c r="U21" t="n">
-        <v>2017.373750363156</v>
+        <v>2060.643005157919</v>
       </c>
       <c r="V21" t="n">
-        <v>1782.221642131413</v>
+        <v>1825.490896926176</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.984285403212</v>
+        <v>1571.253540197974</v>
       </c>
       <c r="X21" t="n">
-        <v>1320.132785197679</v>
+        <v>1363.402039992442</v>
       </c>
       <c r="Y21" t="n">
-        <v>1112.372486432725</v>
+        <v>1155.641741227488</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>370.031397082937</v>
+        <v>409.285016861587</v>
       </c>
       <c r="C22" t="n">
-        <v>370.031397082937</v>
+        <v>409.285016861587</v>
       </c>
       <c r="D22" t="n">
-        <v>370.031397082937</v>
+        <v>259.1683774492512</v>
       </c>
       <c r="E22" t="n">
-        <v>222.1183035005438</v>
+        <v>259.1683774492512</v>
       </c>
       <c r="F22" t="n">
-        <v>222.1183035005438</v>
+        <v>259.1683774492512</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>90.87522461528252</v>
       </c>
       <c r="J22" t="n">
-        <v>66.32567428427433</v>
+        <v>95.09303469149005</v>
       </c>
       <c r="K22" t="n">
-        <v>216.5110785288858</v>
+        <v>231.8610290203453</v>
       </c>
       <c r="L22" t="n">
-        <v>464.2231235400151</v>
+        <v>462.4034087918597</v>
       </c>
       <c r="M22" t="n">
-        <v>735.7898663071978</v>
+        <v>715.8671469285742</v>
       </c>
       <c r="N22" t="n">
-        <v>1006.333975334745</v>
+        <v>968.7387003135613</v>
       </c>
       <c r="O22" t="n">
-        <v>1240.208953340142</v>
+        <v>1186.290212797035</v>
       </c>
       <c r="P22" t="n">
-        <v>1416.808717945825</v>
+        <v>1348.922432682904</v>
       </c>
       <c r="Q22" t="n">
-        <v>1455.642160917981</v>
+        <v>1378.085471685261</v>
       </c>
       <c r="R22" t="n">
-        <v>1455.642160917981</v>
+        <v>1378.085471685261</v>
       </c>
       <c r="S22" t="n">
-        <v>1455.642160917981</v>
+        <v>1378.085471685261</v>
       </c>
       <c r="T22" t="n">
-        <v>1455.642160917981</v>
+        <v>1294.400099939261</v>
       </c>
       <c r="U22" t="n">
-        <v>1362.915185367332</v>
+        <v>1294.400099939261</v>
       </c>
       <c r="V22" t="n">
-        <v>1108.230697161445</v>
+        <v>1039.715611733374</v>
       </c>
       <c r="W22" t="n">
-        <v>818.8135271244844</v>
+        <v>1039.715611733374</v>
       </c>
       <c r="X22" t="n">
-        <v>590.823976226467</v>
+        <v>811.7260608353569</v>
       </c>
       <c r="Y22" t="n">
-        <v>370.031397082937</v>
+        <v>590.9334816918267</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,10 +5977,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4503.139178847509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4334.202995919602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4503.139178847509</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4503.139178847509</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4503.139178847509</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4503.139178847509</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4503.139178847509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4503.139178847509</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,16 +6211,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,16 +6229,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1480.583286656858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1280.66327657241</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1280.66327657241</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1280.66327657241</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1025.978788366523</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1025.978788366523</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>797.9892374685055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>577.1966583249754</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,31 +6445,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>754.3426236399425</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>499.6581354340557</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>499.6581354340557</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,25 +6688,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6794,7 +6794,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4230.423978142506</v>
+        <v>588.5027791527954</v>
       </c>
       <c r="C34" t="n">
-        <v>4061.487795214599</v>
+        <v>588.5027791527954</v>
       </c>
       <c r="D34" t="n">
-        <v>3911.371155802263</v>
+        <v>438.3861397404596</v>
       </c>
       <c r="E34" t="n">
-        <v>3763.45806221987</v>
+        <v>290.4730461580665</v>
       </c>
       <c r="F34" t="n">
-        <v>3763.45806221987</v>
+        <v>143.5830986601561</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>143.5830986601561</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>143.5830986601561</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014292</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X34" t="n">
-        <v>4632.865022116275</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y34" t="n">
-        <v>4412.072442972745</v>
+        <v>588.5027791527954</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6961,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617344999</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y37" t="n">
-        <v>914.0067938933407</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7159,13 +7159,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7259,16 +7259,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>692.3809108364826</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="C40" t="n">
-        <v>692.3809108364826</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2581065529677</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344999</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X40" t="n">
-        <v>692.3809108364826</v>
+        <v>126.7013091079736</v>
       </c>
       <c r="Y40" t="n">
-        <v>692.3809108364826</v>
+        <v>126.7013091079736</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>1273.184780588261</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>1273.184780588261</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1273.184780588261</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>887.3965279900173</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>476.4106232004097</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>161.5434413671076</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>684.9462999361374</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>973.0658535749897</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>1620.937172946945</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>1983.508838883111</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>2312.539720457189</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>2877.439685712992</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>3014.24243326839</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>3014.24243326839</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>2887.593128655237</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>2677.004453565841</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>2423.389710889275</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>2423.389710889275</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>2423.389710889275</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>2049.923952628195</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>1659.784620652383</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>950.4990162576602</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>776.0459869765332</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>627.1115773152819</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>467.8741223098265</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>321.3395643367114</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>184.4128859408967</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>88.46801237258438</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>226.6060508177301</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>637.4963196622427</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>884.2614475687068</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1191.581580848668</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1521.444208512701</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1800.984273731398</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2291.531845265506</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2586.64126258122</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>2586.64126258122</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>2446.735157664994</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>2251.820541588772</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>2023.715617208159</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1788.563508976416</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>1534.326152248215</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>1326.474652042682</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>1118.714353277728</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>665.6859735286132</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="C43" t="n">
-        <v>665.6859735286132</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="D43" t="n">
-        <v>665.6859735286132</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="E43" t="n">
-        <v>665.6859735286132</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>72.66754112927767</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>222.8529453738892</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>470.5649903850184</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>742.1317331522012</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>1012.675842179749</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1246.550820185146</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1423.150584790828</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1461.984027762984</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1461.984027762984</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1262.064017678537</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1038.278602468042</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>749.1499636816006</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>494.4654754757138</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>205.0483054387532</v>
       </c>
       <c r="X43" t="n">
-        <v>665.6859735286132</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="Y43" t="n">
-        <v>665.6859735286132</v>
+        <v>60.28484866536779</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>1653.44882787798</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>1284.486310937569</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1273.184780588261</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>887.3965279900173</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>476.4106232004097</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>246.9649644237708</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>770.3678229928005</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1058.487376631653</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>1410.745332193639</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>1773.316998129806</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>2102.347879703883</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>2667.247844959687</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>3014.24243326839</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>3014.24243326839</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>3014.24243326839</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>2803.653758178993</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>2803.653758178993</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>2803.653758178993</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>2803.653758178993</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>2430.187999917914</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2040.048667942102</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>950.4990162576602</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>776.0459869765332</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>627.1115773152819</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>467.8741223098265</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>321.3395643367114</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>184.4128859408967</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>88.46801237258438</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>226.6060508177301</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>375.67573501979</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>622.440862926254</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1368.46586516018</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>2014.94581412309</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2294.485879341787</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2499.508360123997</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2586.64126258122</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>2586.64126258122</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>2446.735157664994</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>2251.820541588772</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>2023.715617208159</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1788.563508976416</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>1534.326152248215</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>1326.474652042682</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>1118.714353277728</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.2416896507652</v>
+        <v>176.9787646251836</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3055067228584</v>
+        <v>176.9787646251836</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>176.9787646251836</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>176.9787646251836</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>176.9787646251836</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>60.28484866536779</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>72.66754112927767</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>222.8529453738892</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>470.5649903850184</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>742.1317331522012</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1012.675842179749</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1246.550820185146</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1423.150584790828</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1461.984027762984</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1461.984027762984</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1461.984027762984</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1238.19861255249</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>949.0699737660484</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>694.3854855601616</v>
       </c>
       <c r="W46" t="n">
-        <v>1212.672284522552</v>
+        <v>404.9683155232009</v>
       </c>
       <c r="X46" t="n">
-        <v>984.6827336245351</v>
+        <v>176.9787646251836</v>
       </c>
       <c r="Y46" t="n">
-        <v>763.890154481005</v>
+        <v>176.9787646251836</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028821</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8470,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719089</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>74.01734528517878</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N12" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>190.7314431200725</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>360.85623266175</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>160.4088454694717</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>24.48004454144331</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>167.5212543491413</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.0217652005974</v>
       </c>
       <c r="R15" t="n">
-        <v>44.61493160747109</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>137.4110711860807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503167</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>194.2740746496173</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>43.42335724463753</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>308.8543907578367</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>192.1757620829343</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10907,10 +10907,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>298.5993573838069</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>86.28436672390217</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,10 +11384,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>443.1362312666311</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>319.8154760594716</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,19 +22597,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>298.8425904666908</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>210.1425325168047</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22722,13 +22722,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>106.0729718685645</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,16 +22758,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>283.025623222773</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>54.37966206220801</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22944,28 +22944,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>87.91761393773622</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>269.8818973114404</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23041,7 +23041,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>19.58227584217821</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23199,10 +23199,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>165.7810182820799</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23241,13 +23241,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9919488199111</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>275.8288588064481</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>230.8588159664193</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.23223392544212</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
         <v>152.7120966692326</v>
@@ -23466,25 +23466,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.2604436298317</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>308.3179098629039</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>93.18785455724711</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>139.6937976748944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.7782080812158</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>169.9802628683749</v>
+        <v>97.75428864343434</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>37.88745367579469</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.6263110562192</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>150.0940306929823</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>114.4111772562719</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>115.9329420782884</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>200.234151351579</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>222.114733955076</v>
+        <v>31.93087845973267</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>327.6784654737967</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>107.6178794376947</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>118.0967168678601</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.610221305629</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>149.9509781831895</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>113.9273145748869</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>54.22244847270639</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>235.8734636049856</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>91.80500186881117</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>106.0064698786881</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>149.9509781831895</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>113.9273145748869</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>115.2094883835694</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>199.9537508799299</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1974688103783</v>
       </c>
       <c r="U22" t="n">
-        <v>194.4376466034348</v>
+        <v>286.243715280882</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>175.2944832206699</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.81469834175842</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>78.54216539558232</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>124.5670006750223</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>64.51689833640039</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25131,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>40.67825230693387</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>212.2846221893472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>131.6638967775326</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>117.2445871753583</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>7.567553238178107</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>8.463497070472982</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>343.4945265748689</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.96659166315995</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>3.141452161594543</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>761571.351750417</v>
+        <v>761571.3517504169</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>761571.3517504171</v>
+        <v>761571.3517504169</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>768971.5351067949</v>
+        <v>768971.535106795</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>770045.0328047933</v>
+        <v>768971.535106795</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>770525.5062021754</v>
+        <v>966626.3752780805</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>770525.5062021755</v>
+        <v>966626.3752780806</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1000794.824149977</v>
+        <v>804271.719932879</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1000794.824149977</v>
+        <v>804271.719932879</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165455</v>
@@ -26322,22 +26322,22 @@
         <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
+        <v>313978.8245375891</v>
+      </c>
+      <c r="F2" t="n">
         <v>313978.8245375892</v>
       </c>
-      <c r="F2" t="n">
-        <v>320097.5456448118</v>
-      </c>
       <c r="G2" t="n">
-        <v>322853.8139443385</v>
+        <v>395301.8910242577</v>
       </c>
       <c r="H2" t="n">
-        <v>322853.8139443385</v>
+        <v>395301.8910242577</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245942</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="K2" t="n">
         <v>410580.5127245943</v>
@@ -26349,13 +26349,13 @@
         <v>410580.5127245944</v>
       </c>
       <c r="N2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="O2" t="n">
-        <v>410580.5127245942</v>
+        <v>335710.2550599484</v>
       </c>
       <c r="P2" t="n">
-        <v>410580.5127245942</v>
+        <v>335710.2550599485</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>173320.0863769024</v>
+        <v>173320.0863769027</v>
       </c>
       <c r="F3" t="n">
-        <v>129075.323922726</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>57232.21870107736</v>
+        <v>260428.6520701837</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>143843.6813694692</v>
+        <v>69775.25313399866</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>53660.56571087037</v>
       </c>
       <c r="D4" t="n">
-        <v>53660.56571087037</v>
+        <v>53660.56571087039</v>
       </c>
       <c r="E4" t="n">
         <v>36875.32189648371</v>
       </c>
       <c r="F4" t="n">
-        <v>23678.77517851452</v>
+        <v>36875.32189648371</v>
       </c>
       <c r="G4" t="n">
-        <v>17731.99714802238</v>
+        <v>45002.05997285461</v>
       </c>
       <c r="H4" t="n">
-        <v>17731.99714802238</v>
+        <v>45002.05997285461</v>
       </c>
       <c r="I4" t="n">
+        <v>43561.42148316556</v>
+      </c>
+      <c r="J4" t="n">
         <v>43561.42148316555</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>43561.42148316556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43561.42148316555</v>
       </c>
       <c r="L4" t="n">
         <v>43561.42148316555</v>
@@ -26456,10 +26456,10 @@
         <v>43561.42148316556</v>
       </c>
       <c r="O4" t="n">
-        <v>43561.42148316556</v>
+        <v>21517.32678691231</v>
       </c>
       <c r="P4" t="n">
-        <v>43561.42148316556</v>
+        <v>21517.32678691231</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>53934.4451708468</v>
       </c>
       <c r="F5" t="n">
-        <v>57494.26535000591</v>
+        <v>53934.4451708468</v>
       </c>
       <c r="G5" t="n">
-        <v>59099.00262237636</v>
+        <v>85757.28033173307</v>
       </c>
       <c r="H5" t="n">
-        <v>59099.00262237636</v>
+        <v>85757.28033173307</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>63918.82142457891</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>63918.82142457891</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422877.2824722787</v>
+        <v>-428945.6962180981</v>
       </c>
       <c r="C6" t="n">
-        <v>167090.5967422657</v>
+        <v>161022.1829964464</v>
       </c>
       <c r="D6" t="n">
-        <v>167090.5967422656</v>
+        <v>161022.1829964466</v>
       </c>
       <c r="E6" t="n">
-        <v>49848.97109335626</v>
+        <v>44274.29944377687</v>
       </c>
       <c r="F6" t="n">
-        <v>109849.1811935654</v>
+        <v>217594.3858206797</v>
       </c>
       <c r="G6" t="n">
-        <v>188790.5954728624</v>
+        <v>2411.753975462976</v>
       </c>
       <c r="H6" t="n">
-        <v>246022.8141739398</v>
+        <v>262840.4060456466</v>
       </c>
       <c r="I6" t="n">
-        <v>131188.0839232428</v>
+        <v>204281.9208989918</v>
       </c>
       <c r="J6" t="n">
-        <v>98608.54610011916</v>
+        <v>97633.95484039743</v>
       </c>
       <c r="K6" t="n">
-        <v>275031.7652927121</v>
+        <v>274057.1740329905</v>
       </c>
       <c r="L6" t="n">
-        <v>275031.7652927121</v>
+        <v>274057.1740329905</v>
       </c>
       <c r="M6" t="n">
-        <v>275031.7652927123</v>
+        <v>274057.1740329906</v>
       </c>
       <c r="N6" t="n">
-        <v>275031.7652927121</v>
+        <v>274057.1740329904</v>
       </c>
       <c r="O6" t="n">
-        <v>275031.765292712</v>
+        <v>245734.2652237524</v>
       </c>
       <c r="P6" t="n">
-        <v>275031.765292712</v>
+        <v>245734.2652237525</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="F3" t="n">
-        <v>756.7706039692172</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>765.6931020237777</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>765.6931020237776</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26804,10 +26804,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>1135.940307691031</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>1135.940307691031</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26828,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>753.5606083170974</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>753.5606083170974</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209788</v>
       </c>
       <c r="F3" t="n">
-        <v>163.2945036311521</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>73.61180148488316</v>
+        <v>172.2170016857126</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>64.68930343032275</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>461.6530349364759</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>540.9263704990175</v>
+        <v>79.27333556254166</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>461.6530349364759</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.042293885303383</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H14" t="n">
-        <v>31.15689225286328</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I14" t="n">
-        <v>117.2880350131588</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J14" t="n">
-        <v>258.2108906477683</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K14" t="n">
-        <v>386.9911908126605</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L14" t="n">
-        <v>480.096792305014</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M14" t="n">
-        <v>534.2001861877781</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N14" t="n">
-        <v>542.8441036893964</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O14" t="n">
-        <v>512.5922938674108</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P14" t="n">
-        <v>437.4856635739835</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q14" t="n">
-        <v>328.533513806556</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R14" t="n">
-        <v>191.1054932726888</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>69.32627191135091</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T14" t="n">
-        <v>13.31764148291557</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2433835108242706</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.627770733065864</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H15" t="n">
-        <v>15.72083839566242</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I15" t="n">
-        <v>56.04386076564487</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J15" t="n">
-        <v>153.7886375481218</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K15" t="n">
-        <v>262.8492766635346</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L15" t="n">
-        <v>353.4332900895859</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M15" t="n">
-        <v>412.4399791632233</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3560381582133</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O15" t="n">
-        <v>387.2880655992276</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P15" t="n">
-        <v>310.8328165623753</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q15" t="n">
-        <v>207.7835062067934</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R15" t="n">
-        <v>101.0645723564929</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S15" t="n">
-        <v>30.23512743216635</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T15" t="n">
-        <v>6.561058349506701</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1070901798069647</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.364668302239572</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H16" t="n">
-        <v>12.13314181445729</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I16" t="n">
-        <v>41.03929767098641</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J16" t="n">
-        <v>96.48204896833772</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K16" t="n">
-        <v>158.5496445692884</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L16" t="n">
-        <v>202.8889583165997</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M16" t="n">
-        <v>213.9179594137903</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N16" t="n">
-        <v>208.8314684690793</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O16" t="n">
-        <v>192.8896614838261</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P16" t="n">
-        <v>165.0504281181387</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.2723611993518</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R16" t="n">
-        <v>61.36044929888109</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S16" t="n">
-        <v>23.78244668539326</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T16" t="n">
-        <v>5.830855473205442</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07443645284943128</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.078163224216189</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>31.52423912000406</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>118.6708877015948</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>261.255255951319</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>391.5539052323904</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>485.7572430054967</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>540.4985282441513</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>549.2443595049557</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>518.6358739441558</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>442.6437193463186</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>332.4069988790762</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>193.3586706331704</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>70.14364447182649</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>13.47465951400638</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2462530579372951</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.646962521334163</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>15.90619066656942</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>56.70463066874203</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>155.6018406669264</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>265.9483295963153</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>357.6003492045954</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>417.3027406029587</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>428.3475024236603</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>391.8542802404139</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>314.4976063765211</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>210.2333211443399</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>102.2561467193264</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>30.59160648179902</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>6.638414724149542</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.108352797456195</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.380758052829763</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>12.27619432425008</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>41.52316035237143</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>97.61959433506424</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>160.4189810469488</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>205.2810654179813</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>216.4401009540327</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>211.2936391207583</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>195.1638745945197</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>166.9964103167923</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>115.6196584055904</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>62.08390299360005</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>24.06284715704231</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>5.899602589363531</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.07531407560889625</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.078163224216189</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>31.52423912000405</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>118.6708877015947</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>261.255255951319</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>391.5539052323903</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>485.7572430054967</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>540.4985282441513</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>549.2443595049556</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>518.6358739441558</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>442.6437193463186</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>332.4069988790762</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>193.3586706331703</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>70.14364447182648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>13.47465951400637</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2462530579372951</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.646962521334163</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>15.90619066656942</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>56.70463066874203</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>155.6018406669264</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>265.9483295963153</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>357.6003492045954</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>417.3027406029587</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>428.3475024236603</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>391.8542802404138</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>314.497606376521</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>210.2333211443399</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>102.2561467193264</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>30.59160648179902</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>6.638414724149541</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.108352797456195</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.380758052829763</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>12.27619432425008</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>41.52316035237142</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>97.61959433506422</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>160.4189810469487</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>205.2810654179813</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>216.4401009540327</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>211.2936391207583</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>195.1638745945196</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>166.9964103167923</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>115.6196584055904</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>62.08390299360004</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>24.06284715704231</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>5.89960258936353</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.07531407560889623</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932188</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.40709186246</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>212.6331008565868</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N12" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269929</v>
@@ -35509,7 +35509,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>77.16498612108199</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K14" t="n">
-        <v>166.90133976768</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>661.9915918854772</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M14" t="n">
-        <v>494.5853960805778</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N14" t="n">
-        <v>674.2872727545556</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O14" t="n">
-        <v>282.4940824457241</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P14" t="n">
-        <v>206.2526678187139</v>
+        <v>272.2616992568722</v>
       </c>
       <c r="Q14" t="n">
-        <v>106.2278239321065</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>26.95101088145509</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
-        <v>389.4730747017542</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
-        <v>214.8789103097117</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>437.8271995903463</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>292.01432607488</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O15" t="n">
-        <v>638.5541404315127</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>495.3211777879822</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q15" t="n">
-        <v>67.80173212077187</v>
+        <v>125.9883724753217</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.122868851664947</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>136.2801527434056</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L16" t="n">
-        <v>230.4789835769158</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M16" t="n">
-        <v>253.5018363756309</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N16" t="n">
-        <v>252.9636408483079</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O16" t="n">
-        <v>217.4747893978658</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P16" t="n">
-        <v>162.3289873830322</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.11031794765741</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>249.3059665967065</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>495.6094667585746</v>
       </c>
       <c r="L17" t="n">
-        <v>291.0298521604568</v>
+        <v>667.6520425859599</v>
       </c>
       <c r="M17" t="n">
-        <v>355.8161167292792</v>
+        <v>759.6658285097111</v>
       </c>
       <c r="N17" t="n">
-        <v>366.2340059961277</v>
+        <v>757.1782203203489</v>
       </c>
       <c r="O17" t="n">
-        <v>332.3544258324018</v>
+        <v>669.3378437852144</v>
       </c>
       <c r="P17" t="n">
-        <v>386.2183885255104</v>
+        <v>533.2094317625317</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.1845934903002</v>
+        <v>322.4162996645314</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>43.48955269202068</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>154.8552493406685</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>392.5721276345349</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>413.3200440743385</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>275.1687066809404</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>297.0057903403271</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>249.2580357959694</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>498.985967602128</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>280.3288347941675</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>4.26041421839146</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>138.1494892210659</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>232.8710906782975</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>256.0239779158733</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>255.4258114999869</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>219.7490025085593</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>164.2749695816858</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>29.45761515389604</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2814067694342</v>
+        <v>249.3059665967065</v>
       </c>
       <c r="K20" t="n">
-        <v>513.3987343170049</v>
+        <v>495.6094667585745</v>
       </c>
       <c r="L20" t="n">
-        <v>291.0298521604568</v>
+        <v>667.6520425859599</v>
       </c>
       <c r="M20" t="n">
-        <v>355.8161167292792</v>
+        <v>759.6658285097111</v>
       </c>
       <c r="N20" t="n">
-        <v>366.2340059961277</v>
+        <v>757.1782203203488</v>
       </c>
       <c r="O20" t="n">
-        <v>332.3544258324018</v>
+        <v>669.3378437852144</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>533.2094317625317</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.1845934903002</v>
+        <v>322.4162996645314</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>43.48955269202065</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>154.8552493406685</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110547</v>
+        <v>392.5721276345349</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>411.2217315076555</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>275.1687066809404</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>297.0057903403269</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>249.2580357959694</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>498.985967602128</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>280.3288347941674</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>2.098312566683276</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>4.260414218391446</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>138.1494892210659</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>232.8710906782974</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>256.0239779158733</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>255.4258114999869</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>219.7490025085593</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>164.2749695816858</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>29.45761515389603</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37627,10 +37627,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>340.4953046390455</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>88.01303278507413</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>654.4154741130861</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>188.5657734933363</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38104,10 +38104,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>753.5606083170974</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>653.0100494574846</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
